--- a/documents/テスト項目.xlsx
+++ b/documents/テスト項目.xlsx
@@ -8,13 +8,13 @@
     <sheet name="書き出しの概要" sheetId="1" r:id="rId4"/>
     <sheet name="表紙" sheetId="2" r:id="rId5"/>
     <sheet name="単体テスト " sheetId="3" r:id="rId6"/>
-    <sheet name="シート1" sheetId="4" r:id="rId7"/>
+    <sheet name="結合テスト" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -105,6 +105,9 @@
     <t>備考</t>
   </si>
   <si>
+    <t>修正必須判定</t>
+  </si>
+  <si>
     <t>ログイン画面</t>
   </si>
   <si>
@@ -116,6 +119,9 @@
   </si>
   <si>
     <t>○</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -</t>
   </si>
   <si>
     <t>ログイン画面を確認</t>
@@ -488,55 +494,476 @@
     </r>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>カレンダー画面</t>
   </si>
   <si>
     <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 -②「ログイン」ボタンを押下</t>
-  </si>
-  <si>
-    <t>以下表示となっていることを確認</t>
-  </si>
-  <si>
-    <t>カレンダー画面を確認</t>
-  </si>
-  <si>
-    <t>カレンダー部分にてログインした日付が赤い枠で囲まれている事を確認</t>
+②「ログイン」ボタンを押下
+③カレンダー画面のヘッダー部分を確認</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">以下表示となっていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">また「アカウント情報・ログアウト」は青字、下線が引かれていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">マイカレンダー　　　　　　　　　　　   </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>アカウント情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>ログアウト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下
+③カレンダー画面を確認</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">①以下順番で表示されていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②「◀︎◀︎、▶︎▶︎、◀︎、▶︎、予定の追加」は全てボタン形式であることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">③ログインした日付が赤い枠で囲まれていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">④カレンダー下部に選択されている日付が表示されていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">◀︎◀︎現在の年▶︎▶︎
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">◀︎現在の月▶︎
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　　　　　　　　　　　　　予定の追加
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　 日　　月　　火　　水　　木　　金　　土
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　 1　  　2　 　 3　  　4　 　 5　  　6　    7
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　 8　      9        10　    11　    12　  13　   14
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　15　    16       17　    18　    19　  20　   21
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　22　    23       24　    25　    26　  27　   28
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">20〇〇年○月○日
+</t>
+    </r>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下
+③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +④アカウント画面にて画面右上のヘッダー部分の「カレンダー」ボタンを押下</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下
+③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +④アカウント画面にてニックネームの「変更」ボタンを押下 +⑤ニックネーム変更画面にて画面右上のヘッダー部分の「カレンダー」ボタンを押下</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下
+③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +④アカウント画面にてニックネームの「変更」ボタンを押下 +⑤ニックネーム変更画面にてエラーが出ない形式でニックネームを入力 +⑥「保存」ボタンを押下 +⑦ニックネーム変更完了画面にて「カレンダーに戻る」ボタンを押下</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下
+③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +④アカウント画面にてニックネームの「変更」ボタンを押下 +⑤ニックネーム変更画面にてエラーが出ない形式でニックネームを入力 +⑥「保存」ボタンを押下 +⑦ニックネーム変更完了画面にて画面右上のヘッダー部分の「カレンダー」を押下</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下
+③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +④アカウント画面にて「メールアドレス変更」ボタンを押下 +⑤メールアドレス変更画面にて画面右上のヘッダー部分の「カレンダー」を押下</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下
+③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +④アカウント画面にて「パスワード変更」ボタンを押下 +⑤パスワード変更画面にて画面右上のヘッダー部分の「カレンダー」を押下</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下
+③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +④アカウント画面にて「アカウントの削除」ボタンを押下 +⑤アカウント削除画面にて画面右上のヘッダー部分の「カレンダー」を押下</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下 +④予定追加画面にて画面右上のヘッダー部分の「カレンダー」ボタンを押下</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下
+③カレンダー画面にて予定の「確認」ボタンを押下 +④予定確認画面にて画面右上のヘッダー部分の「カレンダー」ボタンを押下</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下
+③カレンダー画面にて予定の「確認」ボタンを押下 +④予定確認画面「カレンダーに戻る」ボタンを押下</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下
+③カレンダー画面にて予定の「確認」ボタンを押下 +④予定確認画面にて「編集」ボタンを押下 +⑤予定編集画面にて画面右上のヘッダー部分の「カレンダー」ボタンを押下</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下
+③カレンダー画面にて予定の「削除」ボタンを押下 +④予定削除画面にて画面右上のヘッダー部分の「カレンダー」ボタンを押下</t>
   </si>
   <si>
     <t>予定追加画面</t>
   </si>
   <si>
     <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 -②「ログイン」ボタン押下 -③カレンダー画面にて「予定追加」ボタンを押下</t>
-  </si>
-  <si>
-    <t>予定追加画面にて「予定開始日」の日付を確認</t>
-  </si>
-  <si>
-    <t>カレンダー画面にて選択していた日付がプルダウンにて選択されていることを確認</t>
-  </si>
-  <si>
-    <t>予定追加画面にて「予定終了日」の日付を確認</t>
+②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下
+④予定追加画面のヘッダー部分を確認</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">以下表示となっていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">また「アカウント情報・ログアウト」は青字、下線が引かれていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>マイカレンダー　　　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>アカウント情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>カレンダー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>ログアウト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下
+④予定追加画面を確認</t>
+  </si>
+  <si>
+    <t>①以下順番で表示されていることを確認
+②「キャンセル、追加」はボタン形式であることを確認
+③「終日フラグ」はチェックボックスであることを確認
+　キャンセル　　　　　　　　　　　　　　　　　追加
+　2023-2-10　　　〜　　　　2023-2-10　　終日フラグ
+     00:00　　　　　　　　　　00:00　　　　　□
+　予定
+　入力値
+　メモ
+　入力値</t>
+  </si>
+  <si>
+    <t>予定追加画面にて「予定開始日」の日付部分を確認</t>
+  </si>
+  <si>
+    <t>カレンダー画面にて選択されていた日付の表示されていることを確認</t>
+  </si>
+  <si>
+    <t>予定追加画面にて「予定終了日」の日付部分を確認</t>
   </si>
   <si>
     <t>予定追加画面にて「予定開始時刻」の時間を確認</t>
   </si>
   <si>
-    <t>「00時00分」と表示されていることを確認</t>
+    <t>「00：00」と表示されていることを確認</t>
+  </si>
+  <si>
+    <t>予定追加画面にて「予定終了時刻」の時間を確認</t>
   </si>
   <si>
     <t>予定追加画面にて「終日フラグ」のチェックボックスを確認</t>
   </si>
   <si>
     <t>チェックが付いていないことを確認</t>
-  </si>
-  <si>
-    <t>予定追加画面にて「予定終了時刻」の時間を確認</t>
   </si>
   <si>
     <t>予定追加画面にて「スケジュール」の内容を確認</t>
@@ -556,31 +983,1415 @@
 ③カレンダー画面にて登録済みの予定内容の「確認」ボタンを押下</t>
   </si>
   <si>
-    <t>予定確認画面にて「予定開始日」の日付を確認</t>
-  </si>
-  <si>
-    <t>登録済みの</t>
-  </si>
-  <si>
-    <t>予定確認画面にて「予定終了日」の日付を確認</t>
-  </si>
-  <si>
-    <t>予定確認画面にて「予定開始時刻」の時間を確認</t>
-  </si>
-  <si>
-    <t>予定確認画面にて「終日フラグ」のチェックボックスを確認</t>
-  </si>
-  <si>
-    <t>予定確認画面にて「予定終了時刻」の時間を確認</t>
-  </si>
-  <si>
-    <t>予定確認画面にて「スケジュール」の内容を確認</t>
-  </si>
-  <si>
-    <t>予定確認画面にて「メモ」の内容を確認</t>
-  </si>
-  <si>
-    <t>シート1</t>
+    <t>予定編集画面</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて登録済みの予定内容の「確認」ボタンを押下 +④予定確認画面にて「編集」ボタンを押下</t>
+  </si>
+  <si>
+    <t>予定削除画面</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて登録済みの予定内容の「削除」ボタンを押下</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">①以下表示となっていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②「キャンセル、削除」はボタン形式であることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">アカウント削除確認画面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">本当に削除しますか？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>キャンセル　削除</t>
+    </r>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>タイトルが「予定削除画面」ではなく「アカウント削除画面」という表示になっている</t>
+  </si>
+  <si>
+    <t>必須</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて登録済みの予定内容の「確認」ボタンを押下 +④予定確認画面にて「削除」ボタンを押下</t>
+  </si>
+  <si>
+    <t>アカウント画面</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">①以下画面表示となっていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②「ニックネーム変更、メールアドレス変更、パスワード変更、カレンダー画面に戻る、アカウントの削除」は全てボタン形式であることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">アカウント画面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　ニックネーム　　ヤマザキ　ニックネーム変更
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　メールアドレス　aa@aa　　メールアドレス変更
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　パスワード　　　設定済み　パスワード変更
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>カレンダー画面に戻る　アカウントの削除</t>
+    </r>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて予定の「確認」ボタンを押下 +④予定確認画面にて画面右上のヘッダー部分の「アカウント情報」を押下</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて予定の「確認」ボタンを押下 +④予定確認画面にて「編集」ボタンを押下 +⑤予定編集画面にて画面右上のヘッダー部分の「アカウント情報」を押下</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて予定の「削除」ボタンを押下 +④予定削除画面にて画面右上のヘッダー部分の「アカウント情報」を押下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「ニックネーム変更」ボタンを押下
+⑤ニックネーム変更画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「ニックネーム変更」ボタンを押下
+⑤ニックネーム変更画面にて画面右上のヘッダー部分の「キャンセル」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「ニックネーム変更」ボタンを押下
+⑤ニックネーム変更画面にてニックネームを入力し「保存」ボタンを押下
+⑥ニックネーム変更完了画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「メールアドレス変更」ボタンを押下
+⑤メールアドレス変更画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「メールアドレス変更」ボタンを押下
+⑤メールアドレス変更画面にて「キャンセル」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「パスワード変更」ボタンを押下
+⑤パスワード変更画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「パスワード変更」ボタンを押下
+⑤パスワード変更画面にて「キャンセル」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「アカウントの削除」ボタンを押下
+⑤アカウント削除画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+</t>
+  </si>
+  <si>
+    <t>ニックネーム変更画面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「ニックネーム変更」ボタンを押下
+⑤ニックネーム変更画面にてヘッダー部分を確認
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">以下表示となっていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">また「アカウント情報、カレンダー、ログアウト」は青字、下線が引かれていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>マイカレンダー　　　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>アカウント情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>カレンダー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>ログアウト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「ニックネーム変更」ボタンを押下
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">①以下画面表示となっていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②「キャンセル、保存」は全てボタン形式であることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">ニックネーム変更画面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　　　　　　　新しいニックネーム
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　　　　　　　入力欄
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　　　　　　　パスワード
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　　　　　　　入力欄
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>キャンセル　　　　保存</t>
+    </r>
+  </si>
+  <si>
+    <t>ニックネーム変更完了画面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「ニックネーム変更」ボタンを押下
+⑤ニックネーム変更画面にてニックネームを入力し「保存」ボタンを押下
+⑥ニックネーム変更完了画面にてヘッダー部分を確認
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「ニックネーム変更」ボタンを押下
+⑤ニックネーム変更画面にてニックネームを入力し「保存」ボタンを押下
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">①以下表示となっていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②「カレンダー画面に戻る」はボタン形式であることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">ニックネーム変更完了画面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">変更が完了しました
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>カレンダー画面に戻る</t>
+    </r>
+  </si>
+  <si>
+    <t>メールアドレス変更画面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「メールアドレス変更」ボタンを押下
+⑤メールアドレス変更画面にてヘッダー部分を確認
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「メールアドレス変更」ボタンを押下
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">①以下画面表示となっていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②「キャンセル、保存」は全てボタン形式であることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">メールアドレス変更画面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　　　　　　　新しいメールアドレス
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　　　　　　　入力欄
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　　　　　　　パスワード
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　　　　　　　入力欄
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>キャンセル　　　　保存</t>
+    </r>
+  </si>
+  <si>
+    <t>メールアドレス変更完了画面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「メールアドレス変更」ボタンを押下
+⑤メールアドレス変更画面にてエラーの出ない形式でメールアドレスと登録済みのパスワードを入力
+⑥「保存」ボタン押下
+⑦メールアドレス変更完了画面にてヘッダー部分を確認
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">以下表示となっていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">また「アカウント情報・ログアウト」は青字、下線が引かれていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>マイカレンダー　　　　　　　　　　　　　　　　　　  　</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>ログアウト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「メールアドレス変更」ボタンを押下
+⑤メールアドレス変更画面にてエラーの出ない形式でメールアドレスと登録済みのパスワードを入力
+⑥「保存」ボタン押下
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">①以下表示となっていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②「ログイン画面に戻る」はボタン形式であることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">メールアドレス変更完了画面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">変更が完了しました
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>ログイン画面に戻る</t>
+    </r>
+  </si>
+  <si>
+    <t>パスワード変更画面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「パスワード変更」ボタンを押下
+⑤パスワード変更画面にてヘッダー部分を確認
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「パスワード変更」ボタンを押下
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">①以下画面表示となっていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②「表示、キャンセル、保存」は全てボタン形式であることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">パスワード変更画面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　　　　　　　新しいパスワード
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　　　　　　　入力欄　　　　　　　　表示
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　　　　　　　現在のパスワード
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">　　　　　　　　　　　入力欄
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>キャンセル　　　　保存</t>
+    </r>
+  </si>
+  <si>
+    <t>パスワード変更完了画面</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「パスワード変更」ボタンを押下
+⑤パスワード変更画面にてエラーが出ない形式で新しいパスワードと登録済みのパスワードを入力する
+⑥「保存」ボタンを押下
+⑦パスワード変更画面にてヘッダー部分を確認</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">①以下表示となっていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②「ログイン画面に戻る」はボタン形式であることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">パスワード変更完了画面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">変更が完了しました
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>ログイン画面に戻る</t>
+    </r>
+  </si>
+  <si>
+    <t>アカウント削除画面</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「アカウントの削除」ボタンを押下
+⑤アカウント削除画面にてヘッダー部分を確認</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「アカウントの削除」ボタンを押下</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">①以下画面表示となっていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②「キャンセル、保存」は全てボタン形式であることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">アカウント削除確認画面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>　　　　　　　　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>本当に削除しますか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>キャンセル　　　　削除</t>
+    </r>
+  </si>
+  <si>
+    <t>「アカウント削除確認画面」の表示が「予定削除確認画面」と表示されている</t>
+  </si>
+  <si>
+    <t>アカウント削除完了画面</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレスとパスワードを入力 +②「ログイン」ボタンを押下 +③カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+④アカウント画面にて「アカウントの削除」ボタンを押下
+⑤アカウント削除確認画面にて「削除」ボタンを押下</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">①以下画面表示となっていることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">②「ログイン画面に戻る」は全てボタン形式であることを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">アカウント削除完了画面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>　　　　　　　　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">削除が完了しました
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>ログイン画面に戻る</t>
+    </r>
+  </si>
+  <si>
+    <t>結合テスト</t>
   </si>
 </sst>
 </file>
@@ -592,7 +2403,7 @@
     <numFmt numFmtId="59" formatCode="yyyy/m/d"/>
     <numFmt numFmtId="60" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -648,12 +2459,24 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
     </font>
     <font>
       <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
@@ -702,7 +2525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -936,6 +2759,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
@@ -1017,7 +2855,7 @@
       <right style="thin">
         <color indexed="14"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="14"/>
       </top>
       <bottom style="thin">
@@ -1035,7 +2873,7 @@
       <top style="medium">
         <color indexed="14"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="14"/>
       </bottom>
       <diagonal/>
@@ -1196,7 +3034,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1257,97 +3095,118 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1356,22 +3215,22 @@
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2522,7 +4381,7 @@
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2533,7 +4392,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>88</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2543,7 +4402,7 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'表紙'!R2C1" tooltip="" display="表紙"/>
     <hyperlink ref="D12" location="'単体テスト '!R1C1" tooltip="" display="単体テスト "/>
-    <hyperlink ref="D14" location="'シート1'!R2C1" tooltip="" display="シート1"/>
+    <hyperlink ref="D14" location="'結合テスト'!R2C1" tooltip="" display="結合テスト"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -2843,22 +4702,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="2" width="19.6016" style="19" customWidth="1"/>
     <col min="3" max="3" width="24.8125" style="19" customWidth="1"/>
     <col min="4" max="4" width="34.4219" style="19" customWidth="1"/>
-    <col min="5" max="5" width="38.0078" style="19" customWidth="1"/>
-    <col min="6" max="6" width="52.6797" style="19" customWidth="1"/>
+    <col min="5" max="5" width="44.0859" style="19" customWidth="1"/>
+    <col min="6" max="6" width="64.375" style="19" customWidth="1"/>
     <col min="7" max="7" width="9" style="19" customWidth="1"/>
     <col min="8" max="9" width="19.6016" style="19" customWidth="1"/>
     <col min="10" max="10" width="33.6016" style="19" customWidth="1"/>
-    <col min="11" max="11" width="28.4219" style="19" customWidth="1"/>
-    <col min="12" max="16384" width="19.6016" style="19" customWidth="1"/>
+    <col min="11" max="12" width="28.4219" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
@@ -2875,1594 +4736,2588 @@
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" ht="20.45" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" t="s" s="24">
+      <c r="A2" s="24"/>
+      <c r="B2" t="s" s="25">
         <v>20</v>
       </c>
-      <c r="C2" t="s" s="25">
+      <c r="C2" t="s" s="26">
         <v>21</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" t="s" s="26">
+      <c r="D2" s="27"/>
+      <c r="E2" t="s" s="27">
         <v>22</v>
       </c>
-      <c r="F2" t="s" s="26">
+      <c r="F2" t="s" s="27">
         <v>23</v>
       </c>
-      <c r="G2" t="s" s="27">
+      <c r="G2" t="s" s="28">
         <v>24</v>
       </c>
-      <c r="H2" t="s" s="27">
+      <c r="H2" t="s" s="28">
         <v>25</v>
       </c>
-      <c r="I2" t="s" s="27">
+      <c r="I2" t="s" s="28">
         <v>26</v>
       </c>
-      <c r="J2" t="s" s="28">
+      <c r="J2" t="s" s="29">
         <v>27</v>
       </c>
-      <c r="K2" s="29"/>
+      <c r="K2" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" ht="32.4" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="32">
+      <c r="C3" t="s" s="34">
+        <v>29</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" t="s" s="34">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s" s="34">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s" s="36">
+        <v>32</v>
+      </c>
+      <c r="H3" s="37">
+        <v>44964</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" ht="131" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="42">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s" s="43">
+        <v>29</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" t="s" s="43">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="43">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s" s="44">
+        <v>32</v>
+      </c>
+      <c r="H4" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+      <c r="K4" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" ht="28.95" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="48">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="43">
+        <v>29</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" t="s" s="43">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s" s="43">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H5" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="J5" s="32"/>
+      <c r="K5" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L5" s="41"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s" s="43">
+        <v>29</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" t="s" s="43">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s" s="43">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H6" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="J6" s="32"/>
+      <c r="K6" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L6" s="41"/>
+    </row>
+    <row r="7" ht="46" customHeight="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="48">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s" s="43">
+        <v>39</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" t="s" s="43">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s" s="43">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H7" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="32"/>
+      <c r="K7" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" ht="129" customHeight="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="48">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="43">
+        <v>39</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" t="s" s="43">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s" s="43">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H8" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="32"/>
+      <c r="K8" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L8" s="41"/>
+    </row>
+    <row r="9" ht="28.95" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="48">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="43">
+        <v>39</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" t="s" s="43">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s" s="43">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H9" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="50"/>
+      <c r="K9" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" ht="28.95" customHeight="1">
+      <c r="A10" s="32"/>
+      <c r="B10" s="48">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="43">
+        <v>39</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" t="s" s="43">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s" s="43">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H10" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I10" s="41"/>
+      <c r="J10" s="50"/>
+      <c r="K10" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L10" s="41"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="32"/>
+      <c r="B11" s="48">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s" s="43">
+        <v>39</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" t="s" s="43">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s" s="43">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H11" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I11" s="41"/>
+      <c r="J11" s="50"/>
+      <c r="K11" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" ht="108" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="48">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s" s="43">
+        <v>47</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" t="s" s="43">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s" s="43">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H12" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I12" s="41"/>
+      <c r="J12" s="50"/>
+      <c r="K12" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L12" s="41"/>
+    </row>
+    <row r="13" ht="151" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="48">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s" s="43">
+        <v>47</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" t="s" s="43">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s" s="43">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H13" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="50"/>
+      <c r="K13" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" ht="28.95" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="48">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s" s="43">
+        <v>47</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" t="s" s="43">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s" s="43">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H14" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I14" s="41"/>
+      <c r="J14" s="50"/>
+      <c r="K14" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L14" s="41"/>
+    </row>
+    <row r="15" ht="28.95" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="48">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s" s="43">
+        <v>47</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" t="s" s="43">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s" s="43">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H15" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="32"/>
+      <c r="K15" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" ht="31" customHeight="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="48">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s" s="43">
+        <v>47</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" t="s" s="43">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s" s="43">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H16" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I16" s="41"/>
+      <c r="J16" s="50"/>
+      <c r="K16" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L16" s="41"/>
+    </row>
+    <row r="17" ht="142" customHeight="1">
+      <c r="A17" s="32"/>
+      <c r="B17" s="48">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s" s="43">
+        <v>57</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" t="s" s="43">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s" s="43">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H17" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="50"/>
+      <c r="K17" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L17" s="41"/>
+    </row>
+    <row r="18" ht="127" customHeight="1">
+      <c r="A18" s="32"/>
+      <c r="B18" s="48">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s" s="43">
+        <v>57</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" t="s" s="43">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s" s="43">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H18" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="32"/>
+      <c r="K18" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" ht="90" customHeight="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="48">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s" s="43">
+        <v>61</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" t="s" s="43">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s" s="43">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H19" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I19" s="41"/>
+      <c r="J19" s="50"/>
+      <c r="K19" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" ht="280" customHeight="1">
+      <c r="A20" s="32"/>
+      <c r="B20" s="48">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s" s="43">
+        <v>61</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" t="s" s="43">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s" s="43">
+        <v>65</v>
+      </c>
+      <c r="G20" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H20" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I20" s="41"/>
+      <c r="J20" s="50"/>
+      <c r="K20" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L20" s="41"/>
+    </row>
+    <row r="21" ht="271.3" customHeight="1">
+      <c r="A21" s="32"/>
+      <c r="B21" s="48">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s" s="43">
+        <v>61</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" t="s" s="43">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s" s="43">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H21" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I21" s="41"/>
+      <c r="J21" s="50"/>
+      <c r="K21" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L21" s="41"/>
+    </row>
+    <row r="22" ht="280" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="48">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s" s="43">
+        <v>61</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" t="s" s="43">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s" s="43">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H22" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I22" s="41"/>
+      <c r="J22" s="50"/>
+      <c r="K22" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L22" s="41"/>
+    </row>
+    <row r="23" ht="280" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="48">
+        <v>21</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" t="s" s="43">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s" s="43">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H23" s="45">
+        <v>44964</v>
+      </c>
+      <c r="I23" s="41"/>
+      <c r="J23" s="50"/>
+      <c r="K23" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L23" s="41"/>
+    </row>
+    <row r="24" ht="279.5" customHeight="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="48">
+        <v>22</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" t="s" s="43">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s" s="43">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H24" s="51">
+        <v>44964</v>
+      </c>
+      <c r="I24" s="41"/>
+      <c r="J24" s="50"/>
+      <c r="K24" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L24" s="41"/>
+    </row>
+    <row r="25" ht="287.35" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="48">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s" s="43">
+        <v>61</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" t="s" s="43">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s" s="43">
+        <v>65</v>
+      </c>
+      <c r="G25" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H25" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="50"/>
+      <c r="K25" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L25" s="41"/>
+    </row>
+    <row r="26" ht="287.95" customHeight="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="48">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s" s="43">
+        <v>61</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s" s="43">
+        <v>65</v>
+      </c>
+      <c r="G26" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H26" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I26" s="41"/>
+      <c r="J26" s="50"/>
+      <c r="K26" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L26" s="41"/>
+    </row>
+    <row r="27" ht="287.95" customHeight="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="48">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s" s="43">
+        <v>61</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" t="s" s="43">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s" s="43">
+        <v>65</v>
+      </c>
+      <c r="G27" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H27" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I27" s="41"/>
+      <c r="J27" s="50"/>
+      <c r="K27" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" ht="295.2" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="48">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s" s="43">
+        <v>61</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" t="s" s="43">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s" s="43">
+        <v>65</v>
+      </c>
+      <c r="G28" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H28" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="50"/>
+      <c r="K28" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L28" s="41"/>
+    </row>
+    <row r="29" ht="301.2" customHeight="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="48">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s" s="43">
+        <v>61</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" t="s" s="43">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s" s="43">
+        <v>65</v>
+      </c>
+      <c r="G29" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H29" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I29" s="41"/>
+      <c r="J29" s="50"/>
+      <c r="K29" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L29" s="41"/>
+    </row>
+    <row r="30" ht="301.2" customHeight="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" t="s" s="43">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s" s="43">
+        <v>65</v>
+      </c>
+      <c r="G30" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H30" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I30" s="41"/>
+      <c r="J30" s="50"/>
+      <c r="K30" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L30" s="41"/>
+    </row>
+    <row r="31" ht="313.95" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="48">
         <v>28</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" t="s" s="32">
+      <c r="C31" t="s" s="43">
+        <v>61</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" t="s" s="43">
+        <v>76</v>
+      </c>
+      <c r="F31" t="s" s="43">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H31" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I31" s="41"/>
+      <c r="J31" s="50"/>
+      <c r="K31" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L31" s="41"/>
+    </row>
+    <row r="32" ht="263.4" customHeight="1">
+      <c r="A32" s="32"/>
+      <c r="B32" s="48">
         <v>29</v>
       </c>
-      <c r="F3" t="s" s="32">
+      <c r="C32" t="s" s="43">
+        <v>61</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" t="s" s="43">
+        <v>77</v>
+      </c>
+      <c r="F32" t="s" s="43">
+        <v>65</v>
+      </c>
+      <c r="G32" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H32" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I32" s="41"/>
+      <c r="J32" s="50"/>
+      <c r="K32" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L32" s="41"/>
+    </row>
+    <row r="33" ht="122.4" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="48">
         <v>30</v>
       </c>
-      <c r="G3" t="s" s="34">
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H33" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I33" s="41"/>
+      <c r="J33" s="50"/>
+      <c r="K33" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L33" s="41"/>
+    </row>
+    <row r="34" ht="90" customHeight="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="48">
         <v>31</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" ht="130.5" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="38"/>
-      <c r="C4" t="s" s="39">
-        <v>28</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" t="s" s="39">
+      <c r="C34" t="s" s="43">
+        <v>78</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" t="s" s="43">
+        <v>79</v>
+      </c>
+      <c r="F34" t="s" s="43">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s" s="49">
         <v>32</v>
       </c>
-      <c r="F4" t="s" s="39">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s" s="41">
-        <v>31</v>
-      </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" ht="27.95" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="44">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s" s="39">
-        <v>28</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" t="s" s="39">
+      <c r="H34" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I34" s="41"/>
+      <c r="J34" s="50"/>
+      <c r="K34" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L34" s="41"/>
+    </row>
+    <row r="35" ht="188" customHeight="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="48">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s" s="43">
+        <v>78</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" t="s" s="43">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s" s="43">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H35" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I35" s="41"/>
+      <c r="J35" s="32"/>
+      <c r="K35" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L35" s="41"/>
+    </row>
+    <row r="36" ht="27.95" customHeight="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="48">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s" s="43">
+        <v>78</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" t="s" s="43">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s" s="43">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H36" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I36" s="41"/>
+      <c r="J36" s="32"/>
+      <c r="K36" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L36" s="41"/>
+    </row>
+    <row r="37" ht="33.3" customHeight="1">
+      <c r="A37" s="32"/>
+      <c r="B37" s="48">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="39">
+      <c r="C37" t="s" s="43">
+        <v>78</v>
+      </c>
+      <c r="D37" s="41"/>
+      <c r="E37" t="s" s="43">
+        <v>85</v>
+      </c>
+      <c r="F37" t="s" s="43">
+        <v>84</v>
+      </c>
+      <c r="G37" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H37" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="32"/>
+      <c r="K37" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L37" s="41"/>
+    </row>
+    <row r="38" ht="27.95" customHeight="1">
+      <c r="A38" s="32"/>
+      <c r="B38" s="48">
         <v>35</v>
       </c>
-      <c r="G5" t="s" s="45">
-        <v>31</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" ht="27.95" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="44">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s" s="39">
-        <v>28</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" t="s" s="39">
+      <c r="C38" t="s" s="43">
+        <v>78</v>
+      </c>
+      <c r="D38" s="41"/>
+      <c r="E38" t="s" s="43">
+        <v>86</v>
+      </c>
+      <c r="F38" t="s" s="43">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H38" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I38" s="41"/>
+      <c r="J38" s="50"/>
+      <c r="K38" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L38" s="41"/>
+    </row>
+    <row r="39" ht="33.3" customHeight="1">
+      <c r="A39" s="32"/>
+      <c r="B39" s="48">
         <v>36</v>
       </c>
-      <c r="F6" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s" s="45">
-        <v>31</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="44">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s" s="39">
+      <c r="C39" t="s" s="43">
+        <v>78</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" t="s" s="43">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s" s="43">
+        <v>87</v>
+      </c>
+      <c r="G39" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H39" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I39" s="41"/>
+      <c r="J39" s="32"/>
+      <c r="K39" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L39" s="41"/>
+    </row>
+    <row r="40" ht="33.3" customHeight="1">
+      <c r="A40" s="32"/>
+      <c r="B40" s="48">
         <v>37</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" t="s" s="39">
+      <c r="C40" t="s" s="43">
+        <v>78</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" t="s" s="43">
+        <v>89</v>
+      </c>
+      <c r="F40" t="s" s="43">
+        <v>90</v>
+      </c>
+      <c r="G40" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H40" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I40" s="41"/>
+      <c r="J40" s="32"/>
+      <c r="K40" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L40" s="41"/>
+    </row>
+    <row r="41" ht="93.3" customHeight="1">
+      <c r="A41" s="32"/>
+      <c r="B41" s="48">
         <v>38</v>
       </c>
-      <c r="F7" t="s" s="39">
+      <c r="C41" t="s" s="43">
+        <v>78</v>
+      </c>
+      <c r="D41" s="41"/>
+      <c r="E41" t="s" s="43">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s" s="43">
+        <v>92</v>
+      </c>
+      <c r="G41" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H41" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I41" s="41"/>
+      <c r="J41" s="32"/>
+      <c r="K41" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L41" s="41"/>
+    </row>
+    <row r="42" ht="33.3" customHeight="1">
+      <c r="A42" s="32"/>
+      <c r="B42" s="48">
         <v>39</v>
       </c>
-      <c r="G7" t="s" s="45">
-        <v>31</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="37"/>
-    </row>
-    <row r="8" ht="145" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="44">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s" s="39">
-        <v>37</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" t="s" s="39">
+      <c r="C42" t="s" s="43">
+        <v>78</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" t="s" s="43">
+        <v>93</v>
+      </c>
+      <c r="F42" t="s" s="43">
+        <v>92</v>
+      </c>
+      <c r="G42" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H42" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I42" s="41"/>
+      <c r="J42" s="32"/>
+      <c r="K42" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L42" s="41"/>
+    </row>
+    <row r="43" ht="188" customHeight="1">
+      <c r="A43" s="32"/>
+      <c r="B43" s="48">
         <v>40</v>
       </c>
-      <c r="F8" t="s" s="39">
+      <c r="C43" t="s" s="43">
+        <v>94</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" t="s" s="43">
+        <v>95</v>
+      </c>
+      <c r="F43" t="s" s="43">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H43" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I43" s="41"/>
+      <c r="J43" s="32"/>
+      <c r="K43" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L43" s="41"/>
+    </row>
+    <row r="44" ht="188" customHeight="1">
+      <c r="A44" s="32"/>
+      <c r="B44" s="48">
         <v>41</v>
       </c>
-      <c r="G8" t="s" s="45">
-        <v>31</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" ht="27.95" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="44">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s" s="39">
-        <v>37</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" t="s" s="39">
+      <c r="C44" t="s" s="43">
+        <v>96</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" t="s" s="43">
+        <v>97</v>
+      </c>
+      <c r="F44" t="s" s="43">
+        <v>82</v>
+      </c>
+      <c r="G44" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H44" s="52">
+        <v>44965</v>
+      </c>
+      <c r="I44" s="41"/>
+      <c r="J44" s="32"/>
+      <c r="K44" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L44" s="41"/>
+    </row>
+    <row r="45" ht="120.95" customHeight="1">
+      <c r="A45" s="32"/>
+      <c r="B45" s="48">
         <v>42</v>
       </c>
-      <c r="F9" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s" s="45">
-        <v>31</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" ht="27.95" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="44">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s" s="39">
-        <v>37</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" t="s" s="39">
+      <c r="C45" t="s" s="43">
+        <v>98</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" t="s" s="43">
+        <v>99</v>
+      </c>
+      <c r="F45" t="s" s="43">
+        <v>100</v>
+      </c>
+      <c r="G45" t="s" s="49">
+        <v>101</v>
+      </c>
+      <c r="H45" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" t="s" s="50">
+        <v>102</v>
+      </c>
+      <c r="K45" t="s" s="40">
+        <v>103</v>
+      </c>
+      <c r="L45" s="41"/>
+    </row>
+    <row r="46" ht="123.1" customHeight="1">
+      <c r="A46" s="32"/>
+      <c r="B46" s="48">
         <v>43</v>
       </c>
-      <c r="F10" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s" s="45">
-        <v>31</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" ht="27.95" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="44">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s" s="39">
-        <v>37</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" t="s" s="39">
+      <c r="C46" t="s" s="43">
+        <v>98</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" t="s" s="43">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s" s="43">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s" s="49">
+        <v>101</v>
+      </c>
+      <c r="H46" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I46" s="41"/>
+      <c r="J46" t="s" s="50">
+        <v>102</v>
+      </c>
+      <c r="K46" t="s" s="40">
+        <v>103</v>
+      </c>
+      <c r="L46" s="41"/>
+    </row>
+    <row r="47" ht="123.1" customHeight="1">
+      <c r="A47" s="32"/>
+      <c r="B47" s="48">
         <v>44</v>
       </c>
-      <c r="F11" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s" s="45">
-        <v>31</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="37"/>
-    </row>
-    <row r="12" ht="107" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="37"/>
-      <c r="C12" t="s" s="39">
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H47" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I47" s="41"/>
+      <c r="J47" s="32"/>
+      <c r="K47" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L47" s="41"/>
+    </row>
+    <row r="48" ht="195" customHeight="1">
+      <c r="A48" s="32"/>
+      <c r="B48" s="48">
         <v>45</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" t="s" s="39">
+      <c r="C48" t="s" s="43">
+        <v>105</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" t="s" s="43">
+        <v>106</v>
+      </c>
+      <c r="F48" t="s" s="43">
+        <v>107</v>
+      </c>
+      <c r="G48" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H48" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I48" s="41"/>
+      <c r="J48" s="32"/>
+      <c r="K48" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L48" s="41"/>
+    </row>
+    <row r="49" ht="195" customHeight="1">
+      <c r="A49" s="32"/>
+      <c r="B49" s="48">
         <v>46</v>
       </c>
-      <c r="F12" t="s" s="39">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s" s="45">
-        <v>31</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" ht="150" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="44">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s" s="39">
-        <v>45</v>
-      </c>
-      <c r="D13" s="40"/>
-      <c r="E13" t="s" s="39">
+      <c r="C49" t="s" s="43">
+        <v>105</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" t="s" s="43">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s" s="43">
+        <v>107</v>
+      </c>
+      <c r="G49" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H49" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I49" s="41"/>
+      <c r="J49" s="32"/>
+      <c r="K49" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L49" s="41"/>
+    </row>
+    <row r="50" ht="177.65" customHeight="1">
+      <c r="A50" s="32"/>
+      <c r="B50" s="48">
         <v>47</v>
       </c>
-      <c r="F13" t="s" s="39">
+      <c r="C50" t="s" s="43">
+        <v>105</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" t="s" s="43">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s" s="43">
+        <v>107</v>
+      </c>
+      <c r="G50" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H50" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I50" s="41"/>
+      <c r="J50" s="32"/>
+      <c r="K50" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L50" s="41"/>
+    </row>
+    <row r="51" ht="166" customHeight="1">
+      <c r="A51" s="32"/>
+      <c r="B51" s="48">
         <v>48</v>
       </c>
-      <c r="G13" t="s" s="45">
-        <v>31</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" ht="27.95" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="44">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s" s="39">
-        <v>45</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" t="s" s="39">
+      <c r="C51" t="s" s="43">
+        <v>105</v>
+      </c>
+      <c r="D51" s="41"/>
+      <c r="E51" t="s" s="43">
+        <v>110</v>
+      </c>
+      <c r="F51" t="s" s="43">
+        <v>107</v>
+      </c>
+      <c r="G51" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H51" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I51" s="41"/>
+      <c r="J51" s="32"/>
+      <c r="K51" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L51" s="41"/>
+    </row>
+    <row r="52" ht="177.65" customHeight="1">
+      <c r="A52" s="32"/>
+      <c r="B52" s="48">
         <v>49</v>
       </c>
-      <c r="F14" t="s" s="39">
+      <c r="C52" t="s" s="43">
+        <v>105</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" t="s" s="43">
+        <v>111</v>
+      </c>
+      <c r="F52" t="s" s="43">
+        <v>107</v>
+      </c>
+      <c r="G52" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H52" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I52" s="41"/>
+      <c r="J52" s="32"/>
+      <c r="K52" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L52" s="41"/>
+    </row>
+    <row r="53" ht="162.6" customHeight="1">
+      <c r="A53" s="32"/>
+      <c r="B53" s="48">
         <v>50</v>
       </c>
-      <c r="G14" t="s" s="45">
-        <v>31</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" ht="27.95" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="44">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s" s="39">
-        <v>45</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="E15" t="s" s="39">
+      <c r="C53" t="s" s="43">
+        <v>105</v>
+      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" t="s" s="43">
+        <v>112</v>
+      </c>
+      <c r="F53" t="s" s="43">
+        <v>107</v>
+      </c>
+      <c r="G53" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H53" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I53" s="41"/>
+      <c r="J53" s="32"/>
+      <c r="K53" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L53" s="41"/>
+    </row>
+    <row r="54" ht="196" customHeight="1">
+      <c r="A54" s="32"/>
+      <c r="B54" s="48">
         <v>51</v>
       </c>
-      <c r="F15" t="s" s="39">
+      <c r="C54" t="s" s="43">
+        <v>105</v>
+      </c>
+      <c r="D54" s="41"/>
+      <c r="E54" t="s" s="43">
+        <v>113</v>
+      </c>
+      <c r="F54" t="s" s="43">
+        <v>107</v>
+      </c>
+      <c r="G54" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H54" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I54" s="41"/>
+      <c r="J54" s="32"/>
+      <c r="K54" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L54" s="41"/>
+    </row>
+    <row r="55" ht="195" customHeight="1">
+      <c r="A55" s="32"/>
+      <c r="B55" s="48">
         <v>52</v>
       </c>
-      <c r="G15" t="s" s="45">
-        <v>31</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="44">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s" s="39">
-        <v>45</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" t="s" s="39">
+      <c r="C55" t="s" s="43">
+        <v>105</v>
+      </c>
+      <c r="D55" s="41"/>
+      <c r="E55" t="s" s="43">
+        <v>114</v>
+      </c>
+      <c r="F55" t="s" s="43">
+        <v>107</v>
+      </c>
+      <c r="G55" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H55" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I55" s="41"/>
+      <c r="J55" s="32"/>
+      <c r="K55" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L55" s="41"/>
+    </row>
+    <row r="56" ht="173.7" customHeight="1">
+      <c r="A56" s="32"/>
+      <c r="B56" s="53"/>
+      <c r="C56" t="s" s="43">
+        <v>105</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" t="s" s="43">
+        <v>116</v>
+      </c>
+      <c r="F56" t="s" s="43">
+        <v>107</v>
+      </c>
+      <c r="G56" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H56" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I56" s="41"/>
+      <c r="J56" s="32"/>
+      <c r="K56" t="s" s="40">
+        <v>103</v>
+      </c>
+      <c r="L56" s="41"/>
+    </row>
+    <row r="57" ht="170" customHeight="1">
+      <c r="A57" s="32"/>
+      <c r="B57" s="48">
         <v>53</v>
       </c>
-      <c r="F16" t="s" s="39">
+      <c r="C57" t="s" s="43">
+        <v>105</v>
+      </c>
+      <c r="D57" s="41"/>
+      <c r="E57" t="s" s="43">
+        <v>117</v>
+      </c>
+      <c r="F57" t="s" s="43">
+        <v>107</v>
+      </c>
+      <c r="G57" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H57" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I57" s="41"/>
+      <c r="J57" s="32"/>
+      <c r="K57" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L57" s="41"/>
+    </row>
+    <row r="58" ht="170" customHeight="1">
+      <c r="A58" s="32"/>
+      <c r="B58" s="53"/>
+      <c r="C58" t="s" s="43">
+        <v>105</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" t="s" s="43">
+        <v>118</v>
+      </c>
+      <c r="F58" t="s" s="43">
+        <v>107</v>
+      </c>
+      <c r="G58" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H58" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I58" s="41"/>
+      <c r="J58" s="32"/>
+      <c r="K58" t="s" s="40">
+        <v>103</v>
+      </c>
+      <c r="L58" s="41"/>
+    </row>
+    <row r="59" ht="195" customHeight="1">
+      <c r="A59" s="32"/>
+      <c r="B59" s="48">
         <v>54</v>
       </c>
-      <c r="G16" t="s" s="45">
-        <v>31</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" ht="141" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="37"/>
-      <c r="C17" t="s" s="39">
+      <c r="C59" t="s" s="43">
+        <v>105</v>
+      </c>
+      <c r="D59" s="41"/>
+      <c r="E59" t="s" s="43">
+        <v>119</v>
+      </c>
+      <c r="F59" t="s" s="43">
+        <v>107</v>
+      </c>
+      <c r="G59" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H59" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I59" s="41"/>
+      <c r="J59" s="50"/>
+      <c r="K59" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L59" s="41"/>
+    </row>
+    <row r="60" ht="178" customHeight="1">
+      <c r="A60" s="32"/>
+      <c r="B60" s="48">
         <v>55</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" t="s" s="39">
+      <c r="C60" t="s" s="43">
+        <v>120</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" t="s" s="43">
+        <v>121</v>
+      </c>
+      <c r="F60" t="s" s="43">
+        <v>122</v>
+      </c>
+      <c r="G60" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H60" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I60" s="41"/>
+      <c r="J60" s="32"/>
+      <c r="K60" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L60" s="41"/>
+    </row>
+    <row r="61" ht="231.8" customHeight="1">
+      <c r="A61" s="32"/>
+      <c r="B61" s="48">
         <v>56</v>
       </c>
-      <c r="F17" t="s" s="39">
-        <v>39</v>
-      </c>
-      <c r="G17" t="s" s="45">
-        <v>31</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" ht="126" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="44">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D18" s="40"/>
-      <c r="E18" t="s" s="39">
+      <c r="C61" t="s" s="43">
+        <v>120</v>
+      </c>
+      <c r="D61" s="41"/>
+      <c r="E61" t="s" s="43">
+        <v>123</v>
+      </c>
+      <c r="F61" t="s" s="43">
+        <v>124</v>
+      </c>
+      <c r="G61" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H61" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I61" s="41"/>
+      <c r="J61" s="50"/>
+      <c r="K61" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L61" s="41"/>
+    </row>
+    <row r="62" ht="206.4" customHeight="1">
+      <c r="A62" s="32"/>
+      <c r="B62" s="48">
         <v>57</v>
       </c>
-      <c r="F18" t="s" s="39">
+      <c r="C62" t="s" s="43">
+        <v>125</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" t="s" s="43">
+        <v>126</v>
+      </c>
+      <c r="F62" t="s" s="43">
+        <v>122</v>
+      </c>
+      <c r="G62" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H62" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I62" s="41"/>
+      <c r="J62" s="32"/>
+      <c r="K62" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L62" s="41"/>
+    </row>
+    <row r="63" ht="205.2" customHeight="1">
+      <c r="A63" s="32"/>
+      <c r="B63" s="48">
         <v>58</v>
       </c>
-      <c r="G18" t="s" s="45">
+      <c r="C63" t="s" s="43">
+        <v>125</v>
+      </c>
+      <c r="D63" s="41"/>
+      <c r="E63" t="s" s="43">
+        <v>127</v>
+      </c>
+      <c r="F63" t="s" s="43">
+        <v>128</v>
+      </c>
+      <c r="G63" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H63" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I63" s="41"/>
+      <c r="J63" s="50"/>
+      <c r="K63" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L63" s="41"/>
+    </row>
+    <row r="64" ht="208.95" customHeight="1">
+      <c r="A64" s="32"/>
+      <c r="B64" s="48">
         <v>59</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" ht="45" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="44">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s" s="39">
+      <c r="C64" t="s" s="43">
+        <v>129</v>
+      </c>
+      <c r="D64" s="41"/>
+      <c r="E64" t="s" s="43">
+        <v>130</v>
+      </c>
+      <c r="F64" t="s" s="43">
+        <v>122</v>
+      </c>
+      <c r="G64" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H64" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I64" s="41"/>
+      <c r="J64" s="32"/>
+      <c r="K64" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L64" s="41"/>
+    </row>
+    <row r="65" ht="177.95" customHeight="1">
+      <c r="A65" s="32"/>
+      <c r="B65" s="48">
         <v>60</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" t="s" s="39">
+      <c r="C65" t="s" s="43">
+        <v>129</v>
+      </c>
+      <c r="D65" s="41"/>
+      <c r="E65" t="s" s="43">
+        <v>131</v>
+      </c>
+      <c r="F65" t="s" s="43">
+        <v>132</v>
+      </c>
+      <c r="G65" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H65" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I65" s="41"/>
+      <c r="J65" s="32"/>
+      <c r="K65" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L65" s="41"/>
+    </row>
+    <row r="66" ht="250" customHeight="1">
+      <c r="A66" s="32"/>
+      <c r="B66" s="48">
         <v>61</v>
       </c>
-      <c r="F19" t="s" s="39">
+      <c r="C66" t="s" s="43">
+        <v>133</v>
+      </c>
+      <c r="D66" s="41"/>
+      <c r="E66" t="s" s="43">
+        <v>134</v>
+      </c>
+      <c r="F66" t="s" s="43">
+        <v>135</v>
+      </c>
+      <c r="G66" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H66" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I66" s="41"/>
+      <c r="J66" s="32"/>
+      <c r="K66" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L66" s="41"/>
+    </row>
+    <row r="67" ht="202.9" customHeight="1">
+      <c r="A67" s="32"/>
+      <c r="B67" s="48">
         <v>62</v>
       </c>
-      <c r="G19" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" ht="27.95" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="44">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s" s="39">
-        <v>60</v>
-      </c>
-      <c r="D20" s="40"/>
-      <c r="E20" t="s" s="39">
+      <c r="C67" t="s" s="43">
+        <v>133</v>
+      </c>
+      <c r="D67" s="41"/>
+      <c r="E67" t="s" s="43">
+        <v>136</v>
+      </c>
+      <c r="F67" t="s" s="43">
+        <v>137</v>
+      </c>
+      <c r="G67" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H67" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I67" s="41"/>
+      <c r="J67" s="32"/>
+      <c r="K67" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L67" s="41"/>
+    </row>
+    <row r="68" ht="190.35" customHeight="1">
+      <c r="A68" s="32"/>
+      <c r="B68" s="48">
         <v>63</v>
       </c>
-      <c r="F20" t="s" s="39">
+      <c r="C68" t="s" s="43">
+        <v>138</v>
+      </c>
+      <c r="D68" s="41"/>
+      <c r="E68" t="s" s="43">
+        <v>139</v>
+      </c>
+      <c r="F68" t="s" s="43">
+        <v>122</v>
+      </c>
+      <c r="G68" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H68" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I68" s="41"/>
+      <c r="J68" s="32"/>
+      <c r="K68" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L68" s="41"/>
+    </row>
+    <row r="69" ht="201.9" customHeight="1">
+      <c r="A69" s="32"/>
+      <c r="B69" s="48">
         <v>64</v>
       </c>
-      <c r="G20" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="37"/>
-    </row>
-    <row r="21" ht="33.3" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="44">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s" s="39">
-        <v>60</v>
-      </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="22" ht="33.3" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="44">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s" s="39">
+      <c r="C69" t="s" s="43">
+        <v>138</v>
+      </c>
+      <c r="D69" s="41"/>
+      <c r="E69" t="s" s="43">
+        <v>140</v>
+      </c>
+      <c r="F69" t="s" s="43">
+        <v>141</v>
+      </c>
+      <c r="G69" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H69" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I69" s="41"/>
+      <c r="J69" s="32"/>
+      <c r="K69" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L69" s="41"/>
+    </row>
+    <row r="70" ht="182" customHeight="1">
+      <c r="A70" s="32"/>
+      <c r="B70" s="48">
         <v>65</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" t="s" s="39">
+      <c r="C70" t="s" s="43">
+        <v>142</v>
+      </c>
+      <c r="D70" s="41"/>
+      <c r="E70" t="s" s="43">
+        <v>143</v>
+      </c>
+      <c r="F70" t="s" s="43">
+        <v>135</v>
+      </c>
+      <c r="G70" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H70" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I70" s="41"/>
+      <c r="J70" s="32"/>
+      <c r="K70" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L70" s="41"/>
+    </row>
+    <row r="71" ht="182" customHeight="1">
+      <c r="A71" s="32"/>
+      <c r="B71" s="48">
         <v>66</v>
       </c>
-      <c r="F22" t="s" s="39">
-        <v>62</v>
-      </c>
-      <c r="G22" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="37"/>
-    </row>
-    <row r="23" ht="33.3" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="44">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" t="s" s="39">
+      <c r="C71" t="s" s="43">
+        <v>142</v>
+      </c>
+      <c r="D71" s="41"/>
+      <c r="E71" t="s" s="43">
+        <v>143</v>
+      </c>
+      <c r="F71" t="s" s="43">
+        <v>144</v>
+      </c>
+      <c r="G71" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H71" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I71" s="41"/>
+      <c r="J71" s="32"/>
+      <c r="K71" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L71" s="41"/>
+    </row>
+    <row r="72" ht="122" customHeight="1">
+      <c r="A72" s="32"/>
+      <c r="B72" s="48">
         <v>67</v>
       </c>
-      <c r="F23" t="s" s="39">
+      <c r="C72" t="s" s="43">
+        <v>145</v>
+      </c>
+      <c r="D72" s="41"/>
+      <c r="E72" t="s" s="43">
+        <v>146</v>
+      </c>
+      <c r="F72" t="s" s="43">
+        <v>122</v>
+      </c>
+      <c r="G72" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H72" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I72" s="41"/>
+      <c r="J72" s="32"/>
+      <c r="K72" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L72" s="41"/>
+    </row>
+    <row r="73" ht="123" customHeight="1">
+      <c r="A73" s="32"/>
+      <c r="B73" s="48">
         <v>68</v>
       </c>
-      <c r="G23" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" ht="333.35" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="44">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D24" s="40"/>
-      <c r="E24" t="s" s="39">
+      <c r="C73" t="s" s="43">
+        <v>145</v>
+      </c>
+      <c r="D73" s="41"/>
+      <c r="E73" t="s" s="43">
+        <v>147</v>
+      </c>
+      <c r="F73" t="s" s="43">
+        <v>148</v>
+      </c>
+      <c r="G73" t="s" s="49">
+        <v>101</v>
+      </c>
+      <c r="H73" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I73" s="41"/>
+      <c r="J73" t="s" s="50">
+        <v>149</v>
+      </c>
+      <c r="K73" t="s" s="40">
+        <v>103</v>
+      </c>
+      <c r="L73" s="41"/>
+    </row>
+    <row r="74" ht="137" customHeight="1">
+      <c r="A74" s="32"/>
+      <c r="B74" s="48">
         <v>69</v>
       </c>
-      <c r="F24" t="s" s="39">
-        <v>68</v>
-      </c>
-      <c r="G24" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="37"/>
-    </row>
-    <row r="25" ht="33.3" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="44">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D25" s="40"/>
-      <c r="E25" t="s" s="39">
+      <c r="C74" t="s" s="43">
+        <v>150</v>
+      </c>
+      <c r="D74" s="41"/>
+      <c r="E74" t="s" s="43">
+        <v>151</v>
+      </c>
+      <c r="F74" t="s" s="43">
+        <v>152</v>
+      </c>
+      <c r="G74" t="s" s="49">
+        <v>32</v>
+      </c>
+      <c r="H74" s="52">
+        <v>44966</v>
+      </c>
+      <c r="I74" s="41"/>
+      <c r="J74" s="50"/>
+      <c r="K74" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L74" s="41"/>
+    </row>
+    <row r="75" ht="33.3" customHeight="1">
+      <c r="A75" s="32"/>
+      <c r="B75" s="48">
         <v>70</v>
       </c>
-      <c r="F25" t="s" s="39">
+      <c r="C75" s="43"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="50"/>
+      <c r="K75" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L75" s="41"/>
+    </row>
+    <row r="76" ht="123.3" customHeight="1">
+      <c r="A76" s="32"/>
+      <c r="B76" s="48">
         <v>71</v>
       </c>
-      <c r="G25" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="37"/>
-    </row>
-    <row r="26" ht="33.3" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="44">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D26" s="40"/>
-      <c r="E26" t="s" s="39">
-        <v>67</v>
-      </c>
-      <c r="F26" t="s" s="39">
-        <v>71</v>
-      </c>
-      <c r="G26" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="37"/>
-    </row>
-    <row r="27" ht="93.3" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="44">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D27" s="40"/>
-      <c r="E27" t="s" s="39">
+      <c r="C76" s="43"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="32"/>
+      <c r="K76" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L76" s="41"/>
+    </row>
+    <row r="77" ht="93.3" customHeight="1">
+      <c r="A77" s="32"/>
+      <c r="B77" s="48">
         <v>72</v>
       </c>
-      <c r="F27" t="s" s="39">
+      <c r="C77" s="43"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="32"/>
+      <c r="K77" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L77" s="41"/>
+    </row>
+    <row r="78" ht="138.3" customHeight="1">
+      <c r="A78" s="32"/>
+      <c r="B78" s="48">
         <v>73</v>
       </c>
-      <c r="G27" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="37"/>
-    </row>
-    <row r="28" ht="33.3" customHeight="1">
-      <c r="A28" s="30"/>
-      <c r="B28" s="44">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D28" s="40"/>
-      <c r="E28" t="s" s="39">
-        <v>70</v>
-      </c>
-      <c r="F28" t="s" s="39">
-        <v>71</v>
-      </c>
-      <c r="G28" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="37"/>
-    </row>
-    <row r="29" ht="33.3" customHeight="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="44">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D29" s="40"/>
-      <c r="E29" t="s" s="39">
+      <c r="C78" s="43"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="32"/>
+      <c r="K78" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L78" s="41"/>
+    </row>
+    <row r="79" ht="18.3" customHeight="1">
+      <c r="A79" s="32"/>
+      <c r="B79" s="48">
         <v>74</v>
       </c>
-      <c r="F29" t="s" s="39">
-        <v>71</v>
-      </c>
-      <c r="G29" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="37"/>
-    </row>
-    <row r="30" ht="48.3" customHeight="1">
-      <c r="A30" s="30"/>
-      <c r="B30" s="44">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D30" s="40"/>
-      <c r="E30" t="s" s="39">
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="32"/>
+      <c r="K79" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L79" s="41"/>
+    </row>
+    <row r="80" ht="18.3" customHeight="1">
+      <c r="A80" s="32"/>
+      <c r="B80" s="48">
         <v>75</v>
       </c>
-      <c r="F30" t="s" s="39">
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="32"/>
+      <c r="K80" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L80" s="41"/>
+    </row>
+    <row r="81" ht="18.3" customHeight="1">
+      <c r="A81" s="32"/>
+      <c r="B81" s="48">
         <v>76</v>
       </c>
-      <c r="G30" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="37"/>
-    </row>
-    <row r="31" ht="93.3" customHeight="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="44">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D31" s="40"/>
-      <c r="E31" t="s" s="39">
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="32"/>
+      <c r="K81" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L81" s="41"/>
+    </row>
+    <row r="82" ht="18.3" customHeight="1">
+      <c r="A82" s="32"/>
+      <c r="B82" s="48">
         <v>77</v>
       </c>
-      <c r="F31" t="s" s="39">
-        <v>76</v>
-      </c>
-      <c r="G31" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="37"/>
-    </row>
-    <row r="32" ht="33.3" customHeight="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="44">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s" s="39">
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="32"/>
+      <c r="K82" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L82" s="41"/>
+    </row>
+    <row r="83" ht="18.3" customHeight="1">
+      <c r="A83" s="32"/>
+      <c r="B83" s="48">
         <v>78</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" t="s" s="39">
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="32"/>
+      <c r="K83" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L83" s="41"/>
+    </row>
+    <row r="84" ht="18.3" customHeight="1">
+      <c r="A84" s="32"/>
+      <c r="B84" s="48">
         <v>79</v>
       </c>
-      <c r="F32" t="s" s="39">
-        <v>62</v>
-      </c>
-      <c r="G32" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="37"/>
-    </row>
-    <row r="33" ht="48.3" customHeight="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="44">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s" s="39">
-        <v>78</v>
-      </c>
-      <c r="D33" s="40"/>
-      <c r="E33" t="s" s="39">
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="32"/>
+      <c r="K84" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L84" s="41"/>
+    </row>
+    <row r="85" ht="18.3" customHeight="1">
+      <c r="A85" s="32"/>
+      <c r="B85" s="48">
         <v>80</v>
       </c>
-      <c r="F33" t="s" s="39">
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="32"/>
+      <c r="K85" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L85" s="41"/>
+    </row>
+    <row r="86" ht="18.3" customHeight="1">
+      <c r="A86" s="32"/>
+      <c r="B86" s="48">
         <v>81</v>
       </c>
-      <c r="G33" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="37"/>
-    </row>
-    <row r="34" ht="33.3" customHeight="1">
-      <c r="A34" s="30"/>
-      <c r="B34" s="44">
-        <v>29</v>
-      </c>
-      <c r="C34" t="s" s="39">
-        <v>78</v>
-      </c>
-      <c r="D34" s="40"/>
-      <c r="E34" t="s" s="39">
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="32"/>
+      <c r="K86" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L86" s="41"/>
+    </row>
+    <row r="87" ht="18.3" customHeight="1">
+      <c r="A87" s="32"/>
+      <c r="B87" s="48">
         <v>82</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="37"/>
-    </row>
-    <row r="35" ht="303.35" customHeight="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="44">
-        <v>30</v>
-      </c>
-      <c r="C35" t="s" s="39">
-        <v>78</v>
-      </c>
-      <c r="D35" s="40"/>
-      <c r="E35" t="s" s="39">
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="32"/>
+      <c r="K87" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L87" s="41"/>
+    </row>
+    <row r="88" ht="18.3" customHeight="1">
+      <c r="A88" s="32"/>
+      <c r="B88" s="48">
         <v>83</v>
       </c>
-      <c r="F35" s="40"/>
-      <c r="G35" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="37"/>
-    </row>
-    <row r="36" ht="48.3" customHeight="1">
-      <c r="A36" s="30"/>
-      <c r="B36" s="44">
-        <v>31</v>
-      </c>
-      <c r="C36" t="s" s="39">
-        <v>78</v>
-      </c>
-      <c r="D36" s="40"/>
-      <c r="E36" t="s" s="39">
-        <v>80</v>
-      </c>
-      <c r="F36" s="40"/>
-      <c r="G36" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="37"/>
-    </row>
-    <row r="37" ht="33.3" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="44">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s" s="39">
-        <v>78</v>
-      </c>
-      <c r="D37" s="40"/>
-      <c r="E37" t="s" s="39">
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="32"/>
+      <c r="K88" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L88" s="41"/>
+    </row>
+    <row r="89" ht="18.3" customHeight="1">
+      <c r="A89" s="32"/>
+      <c r="B89" s="48">
         <v>84</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="37"/>
-    </row>
-    <row r="38" ht="123.3" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="44">
-        <v>33</v>
-      </c>
-      <c r="C38" t="s" s="39">
-        <v>78</v>
-      </c>
-      <c r="D38" s="40"/>
-      <c r="E38" t="s" s="39">
-        <v>83</v>
-      </c>
-      <c r="F38" s="40"/>
-      <c r="G38" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="37"/>
-    </row>
-    <row r="39" ht="33.3" customHeight="1">
-      <c r="A39" s="30"/>
-      <c r="B39" s="44">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s" s="39">
-        <v>78</v>
-      </c>
-      <c r="D39" s="40"/>
-      <c r="E39" t="s" s="39">
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="32"/>
+      <c r="K89" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L89" s="41"/>
+    </row>
+    <row r="90" ht="18.3" customHeight="1">
+      <c r="A90" s="32"/>
+      <c r="B90" s="48">
         <v>85</v>
       </c>
-      <c r="F39" s="40"/>
-      <c r="G39" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" ht="48.3" customHeight="1">
-      <c r="A40" s="30"/>
-      <c r="B40" s="44">
-        <v>35</v>
-      </c>
-      <c r="C40" t="s" s="39">
-        <v>78</v>
-      </c>
-      <c r="D40" s="40"/>
-      <c r="E40" t="s" s="39">
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="32"/>
+      <c r="K90" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L90" s="41"/>
+    </row>
+    <row r="91" ht="18.3" customHeight="1">
+      <c r="A91" s="32"/>
+      <c r="B91" s="48">
         <v>86</v>
       </c>
-      <c r="F40" s="40"/>
-      <c r="G40" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="37"/>
-    </row>
-    <row r="41" ht="33.3" customHeight="1">
-      <c r="A41" s="30"/>
-      <c r="B41" s="44">
-        <v>36</v>
-      </c>
-      <c r="C41" t="s" s="39">
-        <v>78</v>
-      </c>
-      <c r="D41" s="40"/>
-      <c r="E41" t="s" s="39">
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="32"/>
+      <c r="K91" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L91" s="41"/>
+    </row>
+    <row r="92" ht="18.3" customHeight="1">
+      <c r="A92" s="32"/>
+      <c r="B92" s="48">
         <v>87</v>
       </c>
-      <c r="F41" s="40"/>
-      <c r="G41" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="37"/>
-    </row>
-    <row r="42" ht="108.3" customHeight="1">
-      <c r="A42" s="30"/>
-      <c r="B42" s="44">
-        <v>37</v>
-      </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="37"/>
-    </row>
-    <row r="43" ht="33.3" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="44">
-        <v>38</v>
-      </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="37"/>
-    </row>
-    <row r="44" ht="48.3" customHeight="1">
-      <c r="A44" s="30"/>
-      <c r="B44" s="44">
-        <v>39</v>
-      </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="37"/>
-    </row>
-    <row r="45" ht="33.3" customHeight="1">
-      <c r="A45" s="30"/>
-      <c r="B45" s="44">
-        <v>40</v>
-      </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="37"/>
-    </row>
-    <row r="46" ht="333.35" customHeight="1">
-      <c r="A46" s="30"/>
-      <c r="B46" s="44">
-        <v>41</v>
-      </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="37"/>
-    </row>
-    <row r="47" ht="33.3" customHeight="1">
-      <c r="A47" s="30"/>
-      <c r="B47" s="44">
-        <v>42</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="37"/>
-    </row>
-    <row r="48" ht="48.3" customHeight="1">
-      <c r="A48" s="30"/>
-      <c r="B48" s="44">
-        <v>43</v>
-      </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="37"/>
-    </row>
-    <row r="49" ht="33.3" customHeight="1">
-      <c r="A49" s="30"/>
-      <c r="B49" s="44">
-        <v>44</v>
-      </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="37"/>
-    </row>
-    <row r="50" ht="393.35" customHeight="1">
-      <c r="A50" s="30"/>
-      <c r="B50" s="44">
-        <v>45</v>
-      </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="37"/>
-    </row>
-    <row r="51" ht="33.3" customHeight="1">
-      <c r="A51" s="30"/>
-      <c r="B51" s="44">
-        <v>46</v>
-      </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="37"/>
-    </row>
-    <row r="52" ht="48.3" customHeight="1">
-      <c r="A52" s="30"/>
-      <c r="B52" s="44">
-        <v>47</v>
-      </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="37"/>
-    </row>
-    <row r="53" ht="33.3" customHeight="1">
-      <c r="A53" s="30"/>
-      <c r="B53" s="44">
-        <v>48</v>
-      </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="37"/>
-    </row>
-    <row r="54" ht="123.3" customHeight="1">
-      <c r="A54" s="30"/>
-      <c r="B54" s="44">
-        <v>49</v>
-      </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="37"/>
-    </row>
-    <row r="55" ht="33.3" customHeight="1">
-      <c r="A55" s="30"/>
-      <c r="B55" s="44">
-        <v>50</v>
-      </c>
-      <c r="C55" s="39"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="37"/>
-    </row>
-    <row r="56" ht="123.3" customHeight="1">
-      <c r="A56" s="30"/>
-      <c r="B56" s="44">
-        <v>51</v>
-      </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="37"/>
-    </row>
-    <row r="57" ht="93.3" customHeight="1">
-      <c r="A57" s="30"/>
-      <c r="B57" s="44">
-        <v>52</v>
-      </c>
-      <c r="C57" s="39"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="37"/>
-    </row>
-    <row r="58" ht="138.3" customHeight="1">
-      <c r="A58" s="30"/>
-      <c r="B58" s="44">
-        <v>53</v>
-      </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="37"/>
-    </row>
-    <row r="59" ht="18.3" customHeight="1">
-      <c r="A59" s="30"/>
-      <c r="B59" s="44">
-        <v>54</v>
-      </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="37"/>
-    </row>
-    <row r="60" ht="18.3" customHeight="1">
-      <c r="A60" s="30"/>
-      <c r="B60" s="44">
-        <v>55</v>
-      </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="37"/>
-    </row>
-    <row r="61" ht="18.3" customHeight="1">
-      <c r="A61" s="30"/>
-      <c r="B61" s="44">
-        <v>56</v>
-      </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="37"/>
-    </row>
-    <row r="62" ht="18.3" customHeight="1">
-      <c r="A62" s="30"/>
-      <c r="B62" s="44">
-        <v>57</v>
-      </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="37"/>
-    </row>
-    <row r="63" ht="18.3" customHeight="1">
-      <c r="A63" s="30"/>
-      <c r="B63" s="44">
-        <v>58</v>
-      </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="37"/>
-    </row>
-    <row r="64" ht="18.3" customHeight="1">
-      <c r="A64" s="30"/>
-      <c r="B64" s="44">
-        <v>59</v>
-      </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="37"/>
-    </row>
-    <row r="65" ht="18.3" customHeight="1">
-      <c r="A65" s="30"/>
-      <c r="B65" s="44">
-        <v>60</v>
-      </c>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="37"/>
-    </row>
-    <row r="66" ht="18.3" customHeight="1">
-      <c r="A66" s="30"/>
-      <c r="B66" s="44">
-        <v>61</v>
-      </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="37"/>
-    </row>
-    <row r="67" ht="18.3" customHeight="1">
-      <c r="A67" s="30"/>
-      <c r="B67" s="44">
-        <v>62</v>
-      </c>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="37"/>
-    </row>
-    <row r="68" ht="18.3" customHeight="1">
-      <c r="A68" s="30"/>
-      <c r="B68" s="44">
-        <v>63</v>
-      </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="37"/>
-    </row>
-    <row r="69" ht="18.3" customHeight="1">
-      <c r="A69" s="30"/>
-      <c r="B69" s="44">
-        <v>64</v>
-      </c>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="37"/>
-    </row>
-    <row r="70" ht="18.3" customHeight="1">
-      <c r="A70" s="30"/>
-      <c r="B70" s="44">
-        <v>65</v>
-      </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="37"/>
-    </row>
-    <row r="71" ht="18.3" customHeight="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="44">
-        <v>66</v>
-      </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="37"/>
-    </row>
-    <row r="72" ht="18.3" customHeight="1">
-      <c r="A72" s="30"/>
-      <c r="B72" s="44">
-        <v>67</v>
-      </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="37"/>
-    </row>
-    <row r="73" ht="18.3" customHeight="1">
-      <c r="A73" s="30"/>
-      <c r="B73" s="44">
-        <v>68</v>
-      </c>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="37"/>
-    </row>
-    <row r="74" ht="18.3" customHeight="1">
-      <c r="A74" s="30"/>
-      <c r="B74" s="44">
-        <v>69</v>
-      </c>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="37"/>
-    </row>
-    <row r="75" ht="18.3" customHeight="1">
-      <c r="A75" s="30"/>
-      <c r="B75" s="44">
-        <v>70</v>
-      </c>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="37"/>
-    </row>
-    <row r="76" ht="18.3" customHeight="1">
-      <c r="A76" s="30"/>
-      <c r="B76" s="44">
-        <v>71</v>
-      </c>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="37"/>
-    </row>
-    <row r="77" ht="18.3" customHeight="1">
-      <c r="A77" s="30"/>
-      <c r="B77" s="44">
-        <v>72</v>
-      </c>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="37"/>
-    </row>
-    <row r="78" ht="18.3" customHeight="1">
-      <c r="A78" s="30"/>
-      <c r="B78" s="44">
-        <v>73</v>
-      </c>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="37"/>
-    </row>
-    <row r="79" ht="18.3" customHeight="1">
-      <c r="A79" s="30"/>
-      <c r="B79" s="44">
-        <v>74</v>
-      </c>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="40"/>
-      <c r="G79" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="37"/>
-    </row>
-    <row r="80" ht="18.3" customHeight="1">
-      <c r="A80" s="30"/>
-      <c r="B80" s="44">
-        <v>75</v>
-      </c>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" t="s" s="45">
-        <v>59</v>
-      </c>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="37"/>
-    </row>
-    <row r="81" ht="18.3" customHeight="1">
-      <c r="A81" s="30"/>
-      <c r="B81" s="47">
-        <v>76</v>
-      </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" t="s" s="49">
-        <v>59</v>
-      </c>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="37"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="32"/>
+      <c r="K92" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L92" s="41"/>
+    </row>
+    <row r="93" ht="18.3" customHeight="1">
+      <c r="A93" s="32"/>
+      <c r="B93" s="48">
+        <v>88</v>
+      </c>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+      <c r="G93" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="32"/>
+      <c r="K93" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L93" s="41"/>
+    </row>
+    <row r="94" ht="18.3" customHeight="1">
+      <c r="A94" s="32"/>
+      <c r="B94" s="48">
+        <v>89</v>
+      </c>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="32"/>
+      <c r="K94" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L94" s="41"/>
+    </row>
+    <row r="95" ht="18.3" customHeight="1">
+      <c r="A95" s="32"/>
+      <c r="B95" s="48">
+        <v>90</v>
+      </c>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="32"/>
+      <c r="K95" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L95" s="41"/>
+    </row>
+    <row r="96" ht="18.3" customHeight="1">
+      <c r="A96" s="32"/>
+      <c r="B96" s="48">
+        <v>91</v>
+      </c>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="32"/>
+      <c r="K96" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L96" s="41"/>
+    </row>
+    <row r="97" ht="18.3" customHeight="1">
+      <c r="A97" s="32"/>
+      <c r="B97" s="48">
+        <v>92</v>
+      </c>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="32"/>
+      <c r="K97" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L97" s="41"/>
+    </row>
+    <row r="98" ht="18.3" customHeight="1">
+      <c r="A98" s="32"/>
+      <c r="B98" s="48">
+        <v>93</v>
+      </c>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="32"/>
+      <c r="K98" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L98" s="41"/>
+    </row>
+    <row r="99" ht="18.3" customHeight="1">
+      <c r="A99" s="32"/>
+      <c r="B99" s="48">
+        <v>94</v>
+      </c>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="32"/>
+      <c r="K99" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L99" s="41"/>
+    </row>
+    <row r="100" ht="18.3" customHeight="1">
+      <c r="A100" s="32"/>
+      <c r="B100" s="48">
+        <v>95</v>
+      </c>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="32"/>
+      <c r="K100" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L100" s="41"/>
+    </row>
+    <row r="101" ht="18.3" customHeight="1">
+      <c r="A101" s="32"/>
+      <c r="B101" s="54">
+        <v>96</v>
+      </c>
+      <c r="C101" s="55"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" t="s" s="56">
+        <v>115</v>
+      </c>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="57"/>
+      <c r="K101" t="s" s="40">
+        <v>33</v>
+      </c>
+      <c r="L101" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G81">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>"○,×,-"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
+      <formula1>"必須,不要,保留,   -"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -4483,218 +7338,218 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="19.6016" style="51" customWidth="1"/>
-    <col min="8" max="16384" width="19.6016" style="51" customWidth="1"/>
+    <col min="1" max="7" width="19.6016" style="58" customWidth="1"/>
+    <col min="8" max="16384" width="19.6016" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
-      <c r="A1" t="s" s="52">
+      <c r="A1" t="s" s="59">
         <v>5</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" ht="18.3" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
     </row>
     <row r="5" ht="18.3" customHeight="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" ht="18.3" customHeight="1">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
     </row>
     <row r="7" ht="18.3" customHeight="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" ht="18.3" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" ht="18.3" customHeight="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" ht="18.3" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" ht="18.3" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" ht="18.3" customHeight="1">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" ht="18.3" customHeight="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
     </row>
     <row r="14" ht="18.3" customHeight="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
     </row>
     <row r="15" ht="18.3" customHeight="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
     </row>
     <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" ht="18.3" customHeight="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" ht="18.3" customHeight="1">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
     </row>
     <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
     </row>
     <row r="20" ht="18.3" customHeight="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
     </row>
     <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
     </row>
     <row r="22" ht="18.3" customHeight="1">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
     </row>
     <row r="23" ht="18.3" customHeight="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">
